--- a/Team-Data/2013-14/12-2-2013-14.xlsx
+++ b/Team-Data/2013-14/12-2-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,76 +733,76 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.474</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M2" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="N2" t="n">
         <v>0.354</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8</v>
+        <v>17.4</v>
       </c>
       <c r="P2" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.749</v>
+        <v>0.746</v>
       </c>
       <c r="R2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="S2" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U2" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="V2" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="W2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.8</v>
+        <v>20.4</v>
       </c>
       <c r="AB2" t="n">
         <v>98.7</v>
@@ -744,19 +811,19 @@
         <v>-0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -768,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="AL2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>12</v>
@@ -777,13 +844,13 @@
         <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -798,28 +865,28 @@
         <v>5</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -935,22 +1002,22 @@
         <v>24</v>
       </c>
       <c r="AG3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH3" t="n">
         <v>22</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
@@ -959,7 +1026,7 @@
         <v>20</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -968,10 +1035,10 @@
         <v>14</v>
       </c>
       <c r="AR3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS3" t="n">
         <v>17</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>18</v>
       </c>
       <c r="AT3" t="n">
         <v>20</v>
@@ -998,7 +1065,7 @@
         <v>25</v>
       </c>
       <c r="BB3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>25</v>
@@ -1120,16 +1187,16 @@
         <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
@@ -1147,22 +1214,22 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
         <v>15</v>
       </c>
       <c r="AT4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU4" t="n">
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
@@ -1171,13 +1238,13 @@
         <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1317,7 +1384,7 @@
         <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
@@ -1338,7 +1405,7 @@
         <v>16</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
@@ -1347,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX5" t="n">
         <v>9</v>
@@ -1356,7 +1423,7 @@
         <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -1394,121 +1461,121 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.438</v>
+        <v>0.467</v>
       </c>
       <c r="H6" t="n">
-        <v>49.3</v>
+        <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>35.7</v>
+        <v>34.9</v>
       </c>
       <c r="J6" t="n">
-        <v>82.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.434</v>
+        <v>0.43</v>
       </c>
       <c r="L6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="M6" t="n">
-        <v>15.4</v>
+        <v>14.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>17.7</v>
       </c>
       <c r="P6" t="n">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.793</v>
       </c>
       <c r="R6" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="S6" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="T6" t="n">
-        <v>46.4</v>
+        <v>45.8</v>
       </c>
       <c r="U6" t="n">
-        <v>22.3</v>
+        <v>21.5</v>
       </c>
       <c r="V6" t="n">
         <v>16.5</v>
       </c>
       <c r="W6" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X6" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK6" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
@@ -1517,34 +1584,34 @@
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AV6" t="n">
         <v>22</v>
       </c>
       <c r="AW6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BC6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>25</v>
@@ -1666,10 +1733,10 @@
         <v>25</v>
       </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>12</v>
@@ -1687,22 +1754,22 @@
         <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
         <v>27</v>
@@ -1717,7 +1784,7 @@
         <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
         <v>15</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1848,13 +1915,13 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>7</v>
@@ -1863,13 +1930,13 @@
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN8" t="n">
         <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1884,10 +1951,10 @@
         <v>23</v>
       </c>
       <c r="AT8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV8" t="n">
         <v>16</v>
@@ -1896,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -2018,25 +2085,25 @@
         <v>2.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
         <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
         <v>4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
         <v>12</v>
@@ -2060,19 +2127,19 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV9" t="n">
         <v>9</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>8</v>
       </c>
       <c r="AW9" t="n">
         <v>22</v>
@@ -2084,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="AZ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
@@ -2224,7 +2291,7 @@
         <v>14</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM10" t="n">
         <v>20</v>
@@ -2266,16 +2333,16 @@
         <v>14</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB10" t="n">
         <v>16</v>
       </c>
-      <c r="BB10" t="n">
-        <v>15</v>
-      </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
@@ -2409,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2418,7 +2485,7 @@
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>24</v>
@@ -2427,7 +2494,7 @@
         <v>26</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>10</v>
@@ -2451,10 +2518,10 @@
         <v>26</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -2486,85 +2553,85 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.722</v>
       </c>
       <c r="H12" t="n">
         <v>48.8</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J12" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.488</v>
+        <v>0.489</v>
       </c>
       <c r="L12" t="n">
         <v>10.3</v>
       </c>
       <c r="M12" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.378</v>
+        <v>0.381</v>
       </c>
       <c r="O12" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="P12" t="n">
-        <v>32.5</v>
+        <v>33.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.703</v>
+        <v>0.704</v>
       </c>
       <c r="R12" t="n">
         <v>10.5</v>
       </c>
       <c r="S12" t="n">
-        <v>35.5</v>
+        <v>35.9</v>
       </c>
       <c r="T12" t="n">
-        <v>46.1</v>
+        <v>46.4</v>
       </c>
       <c r="U12" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="V12" t="n">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X12" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>109.1</v>
+        <v>109.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,16 +2643,16 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
         <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,28 +2673,28 @@
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
         <v>2</v>
       </c>
-      <c r="AT12" t="n">
-        <v>3</v>
-      </c>
       <c r="AU12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -2668,85 +2735,85 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.889</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J13" t="n">
-        <v>80.3</v>
+        <v>79.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L13" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M13" t="n">
         <v>20.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.778</v>
+        <v>0.773</v>
       </c>
       <c r="R13" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S13" t="n">
-        <v>34.9</v>
+        <v>35.1</v>
       </c>
       <c r="T13" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W13" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X13" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="Y13" t="n">
         <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.9</v>
+        <v>19.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,22 +2825,22 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
         <v>16</v>
       </c>
       <c r="AL13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>14</v>
@@ -2782,28 +2849,28 @@
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -2928,31 +2995,31 @@
         <v>4.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>6</v>
@@ -2973,7 +3040,7 @@
         <v>14</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>13</v>
@@ -2982,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -3110,25 +3177,25 @@
         <v>-1.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK15" t="n">
         <v>20</v>
@@ -3140,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>27</v>
@@ -3164,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW15" t="n">
         <v>27</v>
@@ -3185,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -3292,25 +3359,25 @@
         <v>-2.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
@@ -3328,19 +3395,19 @@
         <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU16" t="n">
         <v>13</v>
@@ -3352,22 +3419,22 @@
         <v>22</v>
       </c>
       <c r="AX16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>9.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
         <v>11</v>
@@ -3501,7 +3568,7 @@
         <v>8</v>
       </c>
       <c r="AM17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
@@ -3531,7 +3598,7 @@
         <v>18</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
         <v>8</v>
@@ -3540,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -3656,25 +3723,25 @@
         <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
         <v>28</v>
       </c>
       <c r="AG18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3695,19 +3762,19 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
         <v>22</v>
       </c>
       <c r="AS18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
         <v>29</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
         <v>25</v>
@@ -3731,7 +3798,7 @@
         <v>29</v>
       </c>
       <c r="BC18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
@@ -3859,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>13</v>
@@ -3877,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -3942,103 +4009,103 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>0.529</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
-        <v>48.9</v>
+        <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>39.8</v>
+        <v>39.1</v>
       </c>
       <c r="J20" t="n">
-        <v>87</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M20" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.413</v>
+        <v>0.407</v>
       </c>
       <c r="O20" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R20" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="S20" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T20" t="n">
-        <v>42.5</v>
+        <v>41.8</v>
       </c>
       <c r="U20" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.5</v>
+        <v>21.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>103.8</v>
+        <v>102.1</v>
       </c>
       <c r="AC20" t="n">
         <v>1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>9</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -4050,25 +4117,25 @@
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="n">
         <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>12</v>
@@ -4083,16 +4150,16 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
         <v>17</v>
       </c>
       <c r="BB20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -4202,22 +4269,22 @@
         <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF21" t="n">
         <v>28</v>
       </c>
       <c r="AG21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>8</v>
@@ -4226,13 +4293,13 @@
         <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4259,10 +4326,10 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY21" t="n">
         <v>10</v>
@@ -4274,7 +4341,7 @@
         <v>27</v>
       </c>
       <c r="BB21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>4.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE22" t="n">
         <v>6</v>
@@ -4396,13 +4463,13 @@
         <v>5</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>14</v>
       </c>
       <c r="AK22" t="n">
         <v>11</v>
@@ -4429,16 +4496,16 @@
         <v>10</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
         <v>13</v>
@@ -4453,7 +4520,7 @@
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB22" t="n">
         <v>8</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -4488,124 +4555,124 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0.353</v>
+        <v>0.375</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.9</v>
       </c>
       <c r="J23" t="n">
-        <v>81.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.464</v>
       </c>
       <c r="L23" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="M23" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.374</v>
+        <v>0.382</v>
       </c>
       <c r="O23" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P23" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.761</v>
+        <v>0.754</v>
       </c>
       <c r="R23" t="n">
         <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U23" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="V23" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="W23" t="n">
         <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>98.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.6</v>
+        <v>-1.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
       </c>
       <c r="AL23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP23" t="n">
         <v>23</v>
       </c>
-      <c r="AP23" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
@@ -4614,35 +4681,35 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU23" t="n">
         <v>17</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>19</v>
       </c>
       <c r="AV23" t="n">
         <v>27</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>19</v>
       </c>
       <c r="AY23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC23" t="n">
         <v>18</v>
       </c>
-      <c r="BC23" t="n">
-        <v>21</v>
-      </c>
       <c r="BD23" t="n">
         <v>10</v>
       </c>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>22</v>
@@ -4763,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="AI24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
         <v>2</v>
@@ -4784,7 +4851,7 @@
         <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4799,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>29</v>
@@ -4808,19 +4875,19 @@
         <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC24" t="n">
         <v>27</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4945,10 +5012,10 @@
         <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4975,7 +5042,7 @@
         <v>23</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>21</v>
@@ -4990,7 +5057,7 @@
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
@@ -4999,7 +5066,7 @@
         <v>16</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -5034,85 +5101,85 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.833</v>
+        <v>0.824</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J26" t="n">
-        <v>85</v>
+        <v>85.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.413</v>
+        <v>0.414</v>
       </c>
       <c r="O26" t="n">
-        <v>18.2</v>
+        <v>17.5</v>
       </c>
       <c r="P26" t="n">
-        <v>22.6</v>
+        <v>21.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.805</v>
+        <v>0.799</v>
       </c>
       <c r="R26" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="S26" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T26" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U26" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="V26" t="n">
         <v>14.2</v>
       </c>
       <c r="W26" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="X26" t="n">
         <v>4.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z26" t="n">
         <v>19.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>2</v>
@@ -5124,13 +5191,13 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
@@ -5139,31 +5206,31 @@
         <v>4</v>
       </c>
       <c r="AM26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AN26" t="n">
         <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT26" t="n">
         <v>8</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>4</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5181,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -5294,25 +5361,25 @@
         <v>-3.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
@@ -5327,10 +5394,10 @@
         <v>22</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ27" t="n">
         <v>7</v>
@@ -5345,7 +5412,7 @@
         <v>22</v>
       </c>
       <c r="AU27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV27" t="n">
         <v>3</v>
@@ -5357,13 +5424,13 @@
         <v>30</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.833</v>
+        <v>0.824</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.491</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.39</v>
+        <v>0.393</v>
       </c>
       <c r="O28" t="n">
         <v>12.7</v>
@@ -5437,34 +5504,34 @@
         <v>16.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="R28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="T28" t="n">
-        <v>42.7</v>
+        <v>42.4</v>
       </c>
       <c r="U28" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="V28" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X28" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>16.9</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
         <v>17.8</v>
@@ -5473,10 +5540,10 @@
         <v>101.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.800000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,25 +5555,25 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,31 +5582,31 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY28" t="n">
         <v>12</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>9</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -5658,25 +5725,25 @@
         <v>-0.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG29" t="n">
         <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
         <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
         <v>27</v>
@@ -5712,7 +5779,7 @@
         <v>30</v>
       </c>
       <c r="AV29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -5762,127 +5829,127 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>0.211</v>
+        <v>0.167</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
       </c>
       <c r="I30" t="n">
-        <v>34.6</v>
+        <v>34.1</v>
       </c>
       <c r="J30" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.432</v>
+        <v>0.426</v>
       </c>
       <c r="L30" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="M30" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.322</v>
+        <v>0.308</v>
       </c>
       <c r="O30" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P30" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.719</v>
+        <v>0.715</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="T30" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U30" t="n">
         <v>19.3</v>
       </c>
       <c r="V30" t="n">
-        <v>16.9</v>
+        <v>17.2</v>
       </c>
       <c r="W30" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>91.5</v>
+        <v>90.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-8.800000000000001</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF30" t="n">
         <v>30</v>
       </c>
       <c r="AG30" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
         <v>28</v>
       </c>
       <c r="AJ30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL30" t="n">
         <v>27</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>25</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ30" t="n">
         <v>23</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
         <v>30</v>
@@ -5897,25 +5964,25 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX30" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
       </c>
       <c r="BC30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
         <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.471</v>
       </c>
       <c r="H31" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I31" t="n">
-        <v>37.3</v>
+        <v>37.6</v>
       </c>
       <c r="J31" t="n">
-        <v>83.5</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K31" t="n">
         <v>0.447</v>
@@ -5971,76 +6038,76 @@
         <v>9</v>
       </c>
       <c r="M31" t="n">
-        <v>22.5</v>
+        <v>23.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>14.9</v>
       </c>
       <c r="P31" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.739</v>
+        <v>0.734</v>
       </c>
       <c r="R31" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S31" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U31" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="V31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W31" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y31" t="n">
         <v>4.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="AB31" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.6</v>
+        <v>-1.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>18</v>
@@ -6049,25 +6116,25 @@
         <v>6</v>
       </c>
       <c r="AM31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP31" t="n">
         <v>25</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AT31" t="n">
         <v>23</v>
@@ -6079,10 +6146,10 @@
         <v>17</v>
       </c>
       <c r="AW31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
@@ -6094,10 +6161,10 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-2-2013-14</t>
+          <t>2013-12-02</t>
         </is>
       </c>
     </row>
